--- a/data/trans_camb/P38B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Estudios-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P38B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 3,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 4,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 2,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 3,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 2,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 3,16</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 4,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 5,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 2,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 3,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 2,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 3,53</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; 1,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 2,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 3,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 1,33</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,4%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 5,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,61; 1,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 4,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 3,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 4,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 1,65</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; -1,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,29; 0,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,56; 1,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 6,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,36; -1,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 1,75</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,58%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,74; -2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,33; 0,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; 1,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 7,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; -1,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 2,04</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,75</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 1,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,91; -0,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 1,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 0,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 1,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 1,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; -0,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 1,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 0,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 1,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 0,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Estudios-trans_camb.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,68</t>
+          <t>-2,12; 5,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,33</t>
+          <t>-0,75; 3,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,16</t>
+          <t>-0,49; 3,42</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 5,46</t>
+          <t>-2,36; 5,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,61</t>
+          <t>-0,8; 3,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,53</t>
+          <t>-0,54; 3,82</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-4,31</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 1,45</t>
+          <t>-26,96; 1,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,69</t>
+          <t>-9,6; 3,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 1,33</t>
+          <t>-18,55; 1,53</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>-5,34%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 1,87</t>
+          <t>-34,35; 1,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 3,27</t>
+          <t>-11,46; 4,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,65</t>
+          <t>-22,98; 1,91</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 0,25</t>
+          <t>-10,31; -0,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,1</t>
+          <t>-2,11; 6,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,75</t>
+          <t>-4,54; 1,92</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>-1,46%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 0,29</t>
+          <t>-11,38; -0,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 7,23</t>
+          <t>-2,33; 7,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 2,04</t>
+          <t>-5,1; 2,25</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-3,94</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -0,33</t>
+          <t>-26,33; -0,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,82</t>
+          <t>-7,7; 1,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,0</t>
+          <t>-14,17; -0,11</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-8,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>-4,64%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -0,44</t>
+          <t>-32,13; -0,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,95</t>
+          <t>-8,76; 1,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,01</t>
+          <t>-16,82; -0,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,83</t>
+          <t>-2,15; 4,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 5,01</t>
+          <t>-2,13; 4,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,4</t>
+          <t>-1,82; 2,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,45</t>
+          <t>-1,11; 3,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,34</t>
+          <t>-1,42; 2,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,42</t>
+          <t>-0,32; 3,46</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,41</t>
+          <t>-2,38; 4,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,87</t>
+          <t>-2,38; 5,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,6</t>
+          <t>-1,93; 2,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,77</t>
+          <t>-1,18; 3,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,6</t>
+          <t>-1,56; 2,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,82</t>
+          <t>-0,34; 3,86</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,49</t>
+          <t>-0,89; 4,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 1,28</t>
+          <t>-29,92; 1,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,84</t>
+          <t>-0,99; 3,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 3,59</t>
+          <t>-9,5; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,46</t>
+          <t>-0,08; 3,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 1,53</t>
+          <t>-16,81; 1,52</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 5,88</t>
+          <t>-1,11; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 1,79</t>
+          <t>-37,93; 1,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,64</t>
+          <t>-1,17; 4,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 4,32</t>
+          <t>-11,34; 4,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,29</t>
+          <t>-0,09; 4,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 1,91</t>
+          <t>-20,75; 1,86</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,3; -1,91</t>
+          <t>-11,01; -1,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -0,01</t>
+          <t>-10,21; -0,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 1,59</t>
+          <t>-7,55; 1,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,48</t>
+          <t>-1,7; 6,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -1,36</t>
+          <t>-8,49; -1,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 1,92</t>
+          <t>-4,47; 1,95</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,74; -2,22</t>
+          <t>-12,26; -1,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -0,02</t>
+          <t>-11,5; -0,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 1,85</t>
+          <t>-8,45; 1,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 7,74</t>
+          <t>-1,87; 7,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -1,6</t>
+          <t>-9,46; -2,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 2,25</t>
+          <t>-5,04; 2,29</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,38</t>
+          <t>-2,02; 1,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,33; -0,41</t>
+          <t>-23,86; -0,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,14</t>
+          <t>-2,06; 1,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 1,43</t>
+          <t>-7,11; 1,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,1</t>
+          <t>-1,64; 0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -0,11</t>
+          <t>-14,89; -0,25</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,72</t>
+          <t>-2,44; 2,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,13; -0,56</t>
+          <t>-28,89; -0,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,3</t>
+          <t>-2,32; 1,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 1,6</t>
+          <t>-8,1; 1,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,3</t>
+          <t>-1,93; 0,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,82; -0,14</t>
+          <t>-17,39; -0,29</t>
         </is>
       </c>
     </row>
